--- a/заказы/филиалы и опт/2024/07,24/15,07,24 Ост СЫР филиалы/дв 15,07,24 днрсч ост сыр от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/07,24/15,07,24 Ост СЫР филиалы/дв 15,07,24 днрсч ост сыр от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\15,07,24 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\07,24\15,07,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891922F-E7B0-4388-B5BC-58EAD5843BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6770AA82-8601-47F7-A6A8-E0CC6AFA6C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AB$42</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -789,14 +789,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AX497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,7 +2205,7 @@
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
     </row>
-    <row r="16" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2306,7 +2305,7 @@
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
     </row>
-    <row r="17" spans="1:50" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>56</v>
       </c>
@@ -2505,7 +2504,7 @@
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
     </row>
-    <row r="19" spans="1:50" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
@@ -3013,7 +3012,7 @@
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
     </row>
-    <row r="24" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>54</v>
       </c>
@@ -3114,7 +3113,7 @@
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
     </row>
-    <row r="25" spans="1:50" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>61</v>
       </c>
@@ -3306,7 +3305,7 @@
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
     </row>
-    <row r="27" spans="1:50" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>50</v>
       </c>
@@ -4516,7 +4515,7 @@
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
     </row>
-    <row r="39" spans="1:50" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>73</v>
       </c>
@@ -4821,7 +4820,7 @@
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
     </row>
-    <row r="42" spans="1:50" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>76</v>
       </c>
@@ -28669,18 +28668,7 @@
       <c r="AX497" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AB42" xr:uid="{956CFE17-2BF3-4C92-824F-9A44E4B9D4A0}">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="0,10"/>
-        <filter val="0,14"/>
-        <filter val="0,18"/>
-        <filter val="0,20"/>
-        <filter val="0,40"/>
-        <filter val="1,00"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AB42" xr:uid="{956CFE17-2BF3-4C92-824F-9A44E4B9D4A0}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
